--- a/ORDER_MGMT/order_files/not_in_file2.xlsx
+++ b/ORDER_MGMT/order_files/not_in_file2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:22 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KAYNESEQ</t>
+          <t>ZENTECEQ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -546,11 +546,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -559,37 +559,35 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5796</v>
+        <v>2065</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Expired</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>20250618040210</v>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>20250619000905'</t>
+        </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>'1200000012497182</t>
+          <t>1300000000132854'</t>
         </is>
       </c>
     </row>
@@ -599,7 +597,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:13 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -609,7 +607,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NAM-INDIAEQ</t>
+          <t>IGILEQ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -619,11 +617,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -632,47 +630,45 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>784</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Expired</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>20250618004974</v>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>20250619000907'</t>
+        </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>'1200000000118192</t>
+          <t>1100000000133709'</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:22 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -682,7 +678,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>KFINTECHEQ</t>
+          <t>NAM-INDIAEQ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -692,7 +688,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -705,24 +701,20 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1274</v>
+        <v>808.6</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -730,22 +722,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>20250618004973</v>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>20250610112376'</t>
+        </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>'1200000000119038</t>
+          <t>1200000000029171'</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:31 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -755,7 +749,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VBLEQ</t>
+          <t>NAM-INDIAEQ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -765,11 +759,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -778,24 +772,20 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>784</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -803,22 +793,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>20250618004946</v>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>20250619000918'</t>
+        </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>'1300000000146512</t>
+          <t>1200000000093187'</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:18 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -828,7 +820,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>INDHOTELEQ</t>
+          <t>NAM-INDIAEQ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -838,11 +830,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -851,24 +843,20 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -876,22 +864,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>20250618004945</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>20250619000919'</t>
+        </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>'1100000000162627</t>
+          <t>1200000000094174'</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18 JUN 2025 09:01:00 AM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -901,7 +891,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GRSEEQ</t>
+          <t>RAILTELEQ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -911,60 +901,58 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3283</v>
+        <v>474</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Executed</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>20250618004944</v>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>20250619000908'</t>
+        </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>'1100000000161155</t>
+          <t>1300000000131503'</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:34 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -974,7 +962,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JUSTDIALEQ</t>
+          <t>RAILTELEQ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -984,7 +972,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -997,24 +985,20 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>935</v>
+        <v>468</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1022,22 +1006,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>20250618004928</v>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>20250619000909'</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>'1100000000161026</t>
+          <t>1300000000132888'</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:34 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1047,7 +1033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JUSTDIALEQ</t>
+          <t>RAILTELEQ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1057,11 +1043,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1070,24 +1056,20 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>926</v>
+        <v>448</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1095,22 +1077,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>20250618004927</v>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>20250619000915'</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>'1100000000162417</t>
+          <t>1300000000132900'</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:34 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1120,7 +1104,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JUSTDIALEQ</t>
+          <t>RAILTELEQ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1130,11 +1114,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1143,24 +1127,20 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>914</v>
+        <v>433</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1168,22 +1148,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>20250618004926</v>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>20250619090247'</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>'1100000000161010</t>
+          <t>1300000043730619'</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:18 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1193,7 +1175,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>INDHOTELEQ</t>
+          <t>SBINEQ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1203,11 +1185,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1216,24 +1198,20 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>774</v>
+        <v>864</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1241,22 +1219,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>20250618004899</v>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>20250609106131'</t>
+        </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>'1100000000162105</t>
+          <t>1300000000098165'</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18 JUN 2025 09:01:00 AM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1266,7 +1246,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GRSEEQ</t>
+          <t>BELEQ</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1276,60 +1256,58 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3217</v>
+        <v>408</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Executed</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>20250618004898</v>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>20250619000894'</t>
+        </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>'1100000000160719</t>
+          <t>1000000000098884'</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:13 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1339,7 +1317,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NAM-INDIAEQ</t>
+          <t>BELEQ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1349,11 +1327,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1362,24 +1340,20 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>774</v>
+        <v>406</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1387,22 +1361,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>20250618004897</v>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>20250619114887'</t>
+        </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>'1200000000118525</t>
+          <t>1000000051247773'</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:18 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1412,7 +1388,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BDLEQ</t>
+          <t>INDHOTELEQ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1422,11 +1398,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1435,24 +1411,20 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2080</v>
+        <v>821</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1460,22 +1432,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>20250618004896</v>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>20250505073214'</t>
+        </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>'1000000000109275</t>
+          <t>1100000000097028'</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:27 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1485,7 +1459,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CDSLEQ</t>
+          <t>INDHOTELEQ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1495,11 +1469,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1508,24 +1482,20 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1822</v>
+        <v>798</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1533,22 +1503,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>20250618004847</v>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>20250508037141'</t>
+        </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>'1000000000109787</t>
+          <t>1100000000095142'</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18 JUN 2025 09:00:59 AM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1558,7 +1530,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KFINTECHEQ</t>
+          <t>INDHOTELEQ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1568,60 +1540,58 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1240</v>
+        <v>783</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Executed</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>20250618004846</v>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>20250619000921'</t>
+        </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>'1200000000117471</t>
+          <t>1100000000133835'</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:22 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1631,7 +1601,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IRCONEQ</t>
+          <t>INDHOTELEQ</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1641,11 +1611,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1654,24 +1624,20 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>214</v>
+        <v>774</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1679,22 +1645,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>20250618004827</v>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>20250619000922'</t>
+        </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>'1100000000161308</t>
+          <t>1100000000132389'</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:23 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1704,7 +1672,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IRCONEQ</t>
+          <t>AMBEREQ</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1714,11 +1682,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1727,24 +1695,20 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>226</v>
+        <v>6850</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1752,22 +1716,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>20250618004826</v>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>20250521102096'</t>
+        </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>'1100000000160023</t>
+          <t>1000000000073556'</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:20 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1787,11 +1753,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1800,24 +1766,20 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>148.5</v>
+        <v>146</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1825,22 +1787,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>20250618004825</v>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>20250619117043'</t>
+        </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>'1100000000161290</t>
+          <t>1100000067218610'</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:25 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1850,7 +1814,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RVNLEQ</t>
+          <t>IRFCEQ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1860,11 +1824,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1873,24 +1837,20 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>419</v>
+        <v>148.5</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1898,22 +1858,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>20250618004649</v>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>20250619000902'</t>
+        </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>'1300000000145404</t>
+          <t>1100000000132256'</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18 JUN 2025 09:00:57 AM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1923,7 +1885,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>IGILEQ</t>
+          <t>BDLEQ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1933,7 +1895,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1946,47 +1908,45 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>408</v>
+        <v>2040</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>20250618002878</v>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>20250604042634'</t>
+        </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>'1100000000157905</t>
+          <t>1000000000071536'</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18 JUN 2025 09:00:58 AM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1996,7 +1956,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ZENTECEQ</t>
+          <t>BDLEQ</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2006,11 +1966,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2019,47 +1979,45 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2065</v>
+        <v>1974</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>20250618002857</v>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>20250619000917'</t>
+        </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>'1300000000145033</t>
+          <t>1000000000100081'</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:17 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2069,7 +2027,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RAILTELEQ</t>
+          <t>NIFTYBEESEQ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2079,11 +2037,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2092,24 +2050,20 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>474</v>
+        <v>283.25</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2117,22 +2071,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P23" t="n">
-        <v>20250618002832</v>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>20241209067864'</t>
+        </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>'1300000000143725</t>
+          <t>1200000000243961'</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:17 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2142,7 +2098,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RAILTELEQ</t>
+          <t>HALEQ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2152,11 +2108,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2165,24 +2121,20 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>468</v>
+        <v>5260</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2190,22 +2142,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>20250618002734</v>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>20250610078550'</t>
+        </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>'1300000000142987</t>
+          <t>1100000000105490'</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:17 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2215,7 +2169,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RAILTELEQ</t>
+          <t>IRCONEQ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2225,11 +2179,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2238,24 +2192,20 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>448</v>
+        <v>208</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2263,22 +2213,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>20250618002684</v>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>20250619129825'</t>
+        </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>'1300000000142573</t>
+          <t>1100000075703445'</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:33 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2288,7 +2240,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IGILEQ</t>
+          <t>IRCONEQ</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2298,11 +2250,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2311,24 +2263,20 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>388.5</v>
+        <v>226</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2336,22 +2284,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>20250618000904</v>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>20250619000903'</t>
+        </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>'1100000000143532</t>
+          <t>1100000000133679'</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:15 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2361,7 +2311,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BELEQ</t>
+          <t>IRCONEQ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2371,7 +2321,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2384,24 +2334,20 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>408</v>
+        <v>214</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2409,22 +2355,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>20250618000903</v>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>20250619000904'</t>
+        </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>'1000000000100226</t>
+          <t>1100000000132278'</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:29 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2434,7 +2382,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TECHMEQ</t>
+          <t>ZENTECEQ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2444,7 +2392,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2457,24 +2405,20 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1743</v>
+        <v>1980</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2482,22 +2426,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>20250618000902</v>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>20250619115003'</t>
+        </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>'1300000000133178</t>
+          <t>1300000061444609'</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:29 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2507,7 +2453,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOLARINDSEQ</t>
+          <t>KAYNESEQ</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2517,11 +2463,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2530,24 +2476,20 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>17690</v>
+        <v>5796</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>Cash N Carry</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2555,22 +2497,24 @@
           <t>Expired</t>
         </is>
       </c>
-      <c r="P29" t="n">
-        <v>20250618000901</v>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>20250619000928'</t>
+        </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>'1300000000134688</t>
+          <t>1200000000093260'</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>18 JUN 2025 04:26:32 PM</t>
+          <t>19-JUN-25</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2580,60 +2524,2401 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>KFINTECHEQ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1274</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>20250619000916'</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1200000000093168'</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRSEEQ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3260</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>20250619091049'</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1100000047594333'</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>RVNLEQ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>70</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>20250612128100'</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1300000000119980'</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>RVNLEQ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>90</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>405</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>20250619125297'</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1300000068187088'</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>INDIGOEQ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>20250603053653'</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1100000000122095'</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MAXHEALTHEQ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>20250521075693'</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1200000000085613'</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SOLARINDSEQ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>17690</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>20250619000892'</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1300000000131376'</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TECHMEQ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1743</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>20250619000893'</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1300000000132779'</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CDSLEQ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>11</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1822</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>20250619000901'</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1000000000100008'</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UNOMINDAEQ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1140</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>20250605184920'</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1300000000123249'</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GOLDBEESEQ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>300</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>85</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>20250411139606'</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1100000000393574'</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GOLDBEESEQ</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>250</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>84.23999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>20250423053926'</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1100000000392886'</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VBLEQ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>70</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>490</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>20250602088301'</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1300000000127152'</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VBLEQ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>80</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>482</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>20250619000926'</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1300000000131653'</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VBLEQ</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>30</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>474</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>20250619116361'</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>1300000062352114'</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>IREDAEQ</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>130</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>177</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>20250619000891'</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1100000000133588'</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DIXONEQ</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15740</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>20250610086854'</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1100000000039355'</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>IGILEQ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>30</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>370</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>20250619116119'</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1100000066494123'</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>IGILEQ</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>20250619000895'</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1100000000133639'</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>IGILEQ</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>378</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>20250619012607'</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1100000003768724'</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>JUSTDIALEQ</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>40</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>914</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>20250619000923'</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1100000000133858'</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>JUSTDIALEQ</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>926</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>20250619000924'</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1100000000132443'</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>JUSTDIALEQ</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>60</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>935</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>20250619000925'</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1100000000133907'</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GOLDBEESEQ</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>20250507081427'</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1750304700035000137'</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VBLEQ</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>70</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>554</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>20250505092372'</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>IGILEQ</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>30</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>446</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>20250516125444'</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>IGILEQ</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>160</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>414</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>20250609174068'</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>HUDCOEQ</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>20250609107122'</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>IREDAEQ</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
         <v>100</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>177</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Reg lot</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>CASH</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Expired</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>20250618000900</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>cu</t>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>187</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>20250423077997'</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>KAYNESEQ</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>20</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6800</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>20250519004679'</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>KAYNESEQ</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6660</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>20250519050118'</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>KAYNESEQ</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6380</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>20250520139636'</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>RVNLEQ</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>40</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>444</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>20250521087104'</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>0'</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>19-JUN-25</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>EASEMYTRIPEQ</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Reg. Lot</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Cash N Carry</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>20250324024408'</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>0'</t>
         </is>
       </c>
     </row>
